--- a/BH_CustomThreads_Test.xlsx
+++ b/BH_CustomThreads_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Project Files\N-Body\Parallel-N-Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4044A68C-25D9-492D-90E1-8F27306F55DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0866A7-E6E5-4788-952F-CFDAF56019CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB9CAB56-6FB1-4C02-90EF-15C21FA1194A}"/>
   </bookViews>

--- a/BH_CustomThreads_Test.xlsx
+++ b/BH_CustomThreads_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Project Files\N-Body\Parallel-N-Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0866A7-E6E5-4788-952F-CFDAF56019CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36C6239-35B4-4707-B878-4FDD80A2EBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB9CAB56-6FB1-4C02-90EF-15C21FA1194A}"/>
   </bookViews>
@@ -363,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,6 +375,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -695,7 +698,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,13 +762,13 @@
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -791,13 +794,13 @@
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -823,7 +826,7 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -848,7 +851,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,13 +915,13 @@
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -944,13 +947,13 @@
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -976,7 +979,7 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -1001,7 +1004,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,13 +1068,13 @@
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1097,13 +1100,13 @@
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1129,7 +1132,7 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="4" t="s">

--- a/BH_CustomThreads_Test.xlsx
+++ b/BH_CustomThreads_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Project Files\N-Body\Parallel-N-Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36C6239-35B4-4707-B878-4FDD80A2EBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C54A23A-B4BD-40CA-A31D-B3EAEED21A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB9CAB56-6FB1-4C02-90EF-15C21FA1194A}"/>
   </bookViews>
@@ -363,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,9 +373,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -697,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2254D60-6C90-4DFA-ADC6-7FF6B515499F}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,13 +759,13 @@
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -794,13 +791,13 @@
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -826,7 +823,7 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -851,7 +848,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,13 +912,13 @@
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -947,13 +944,13 @@
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -979,7 +976,7 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -1004,7 +1001,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,13 +1065,13 @@
       <c r="G2">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1100,13 +1097,13 @@
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1132,7 +1129,7 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="4" t="s">

--- a/BH_CustomThreads_Test.xlsx
+++ b/BH_CustomThreads_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Project Files\N-Body\Parallel-N-Body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C54A23A-B4BD-40CA-A31D-B3EAEED21A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E1C952-BA46-43A8-82AE-17D989F2DDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB9CAB56-6FB1-4C02-90EF-15C21FA1194A}"/>
   </bookViews>
